--- a/biology/Botanique/Charlie_Danny_Heatubun/Charlie_Danny_Heatubun.xlsx
+++ b/biology/Botanique/Charlie_Danny_Heatubun/Charlie_Danny_Heatubun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charlie Danny Heatubun, né en 1973, est un botanique indonésien, avant tout spécialiste des palmiers[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlie Danny Heatubun, né en 1973, est un botanique indonésien, avant tout spécialiste des palmiers.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2011, il obtient un postdoctorat au Kew Gardens, avec le Projet "Palmiers du Vieux Monde".
 Doctorat. "summa cum laude" Par l'Université Agricole de Bogor (IPB) et le  Jardin Botanique Royal de Kew, avec la thèse "Systématique et Évolution du genre  palmier Areca L." 2009 - S-2 
 IPB avec la thèse "Monographie du genre de palmier Cyrtostachys Blume" 2006 - S-1 
-Département de Silviculture de la Faculté d' Agronomíe de l'Université de Paraiso, Manokwari, Papúa (maintenant Faculté de Sciences Forestières de l'Université De l'État de Papúa / Unipa), 1997[2]
+Département de Silviculture de la Faculté d' Agronomíe de l'Université de Paraiso, Manokwari, Papúa (maintenant Faculté de Sciences Forestières de l'Université De l'État de Papúa / Unipa), 1997
 </t>
         </is>
       </c>
@@ -545,13 +559,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C.D. Heatubun, 2008. A new Areca from western New Guinea. Palms 52 (4): 198-202
 W.J. Baker, S. Zona, C.D. Heatubun, C.E. Lewis, R.A. Maturbongs, M.V. Norup, 2006. Dransfieldia (Arecaceae) – A new palm genus from western New Guinea. Syst. Bot. 31: 61–69
-2005. The rediscovery of Beccari’S Nenggela flabellata in Irian Jaya Barat. Folia Malaysiana 6: 27–34
-Livres
-Versalita. 1995.</t>
+2005. The rediscovery of Beccari’S Nenggela flabellata in Irian Jaya Barat. Folia Malaysiana 6: 27–34</t>
         </is>
       </c>
     </row>
@@ -576,14 +590,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Versalita. 1995.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charlie_Danny_Heatubun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_Danny_Heatubun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Juin 2013- : professeur invité dans le Réel Jardin Botanique de Kew
 Janvier 2013- : Chef de Recherche de l'Environnement Centre Unipa
-Octobre 2012- : professeur de la Faculté de Sciences Forestières Unipa[2]</t>
+Octobre 2012- : professeur de la Faculté de Sciences Forestières Unipa</t>
         </is>
       </c>
     </row>
